--- a/Formatos a Importar/Formato.xlsx
+++ b/Formatos a Importar/Formato.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDC9AE6-1D7D-4009-9D71-B66D3573C373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="55">
   <si>
     <t>Campo</t>
   </si>
@@ -148,9 +147,6 @@
     <t>Nombre del Banco origen</t>
   </si>
   <si>
-    <t>Nombre de la transacción</t>
-  </si>
-  <si>
     <t>Tiene empleados? 0,1</t>
   </si>
   <si>
@@ -179,12 +175,18 @@
   </si>
   <si>
     <t>identificador</t>
+  </si>
+  <si>
+    <t>Identificador 1</t>
+  </si>
+  <si>
+    <t>Identificador 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,13 +456,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D59" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D59" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D59"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Linea" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Campo" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tabla" dataDxfId="0"/>
+    <tableColumn id="4" name="Linea" dataDxfId="3"/>
+    <tableColumn id="1" name="Campo" dataDxfId="2"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="3" name="Tabla" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,7 +511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,26 +544,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,23 +579,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,23 +754,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="9.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -827,24 +795,24 @@
         <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -852,27 +820,27 @@
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -880,41 +848,41 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -925,10 +893,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -939,10 +907,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -953,10 +921,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -967,10 +935,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -981,10 +949,10 @@
         <v>28</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -995,10 +963,10 @@
         <v>29</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1009,10 +977,10 @@
         <v>30</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1023,10 +991,10 @@
         <v>31</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1037,10 +1005,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1051,10 +1019,10 @@
         <v>33</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1065,10 +1033,10 @@
         <v>34</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1079,10 +1047,10 @@
         <v>35</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1093,10 +1061,10 @@
         <v>36</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1107,10 +1075,10 @@
         <v>37</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1121,10 +1089,10 @@
         <v>38</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1135,10 +1103,10 @@
         <v>39</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1149,10 +1117,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -1163,10 +1131,10 @@
         <v>24</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -1177,10 +1145,10 @@
         <v>25</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -1191,10 +1159,10 @@
         <v>26</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -1205,10 +1173,10 @@
         <v>27</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -1219,10 +1187,10 @@
         <v>28</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -1233,10 +1201,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -1247,10 +1215,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="28">
         <v>32</v>
       </c>
@@ -1261,10 +1229,10 @@
         <v>31</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -1275,10 +1243,10 @@
         <v>32</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="28">
         <v>34</v>
       </c>
@@ -1289,10 +1257,10 @@
         <v>33</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -1303,10 +1271,10 @@
         <v>34</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" s="28">
         <v>36</v>
       </c>
@@ -1317,10 +1285,10 @@
         <v>35</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -1331,10 +1299,10 @@
         <v>36</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="28">
         <v>38</v>
       </c>
@@ -1345,10 +1313,10 @@
         <v>37</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -1359,10 +1327,10 @@
         <v>38</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="28">
         <v>40</v>
       </c>
@@ -1373,10 +1341,10 @@
         <v>39</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -1387,10 +1355,10 @@
         <v>40</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="24">
         <v>42</v>
       </c>
@@ -1401,10 +1369,10 @@
         <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="27">
         <v>43</v>
       </c>
@@ -1415,10 +1383,10 @@
         <v>25</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="24">
         <v>44</v>
       </c>
@@ -1429,10 +1397,10 @@
         <v>26</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="27">
         <v>45</v>
       </c>
@@ -1443,10 +1411,10 @@
         <v>27</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>46</v>
       </c>
@@ -1457,10 +1425,10 @@
         <v>28</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="27">
         <v>47</v>
       </c>
@@ -1471,10 +1439,10 @@
         <v>29</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A49" s="24">
         <v>48</v>
       </c>
@@ -1485,10 +1453,10 @@
         <v>30</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="27">
         <v>49</v>
       </c>
@@ -1499,10 +1467,10 @@
         <v>31</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>50</v>
       </c>
@@ -1513,10 +1481,10 @@
         <v>32</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A52" s="27">
         <v>51</v>
       </c>
@@ -1527,10 +1495,10 @@
         <v>33</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A53" s="24">
         <v>52</v>
       </c>
@@ -1541,10 +1509,10 @@
         <v>34</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A54" s="27">
         <v>53</v>
       </c>
@@ -1555,10 +1523,10 @@
         <v>35</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -1569,10 +1537,10 @@
         <v>36</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A56" s="27">
         <v>55</v>
       </c>
@@ -1583,10 +1551,10 @@
         <v>37</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -1597,10 +1565,10 @@
         <v>38</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A58" s="27">
         <v>57</v>
       </c>
@@ -1611,10 +1579,10 @@
         <v>39</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>58</v>
       </c>
@@ -1625,7 +1593,7 @@
         <v>40</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1638,24 +1606,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
